--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-21.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-21.xlsx
@@ -2351,17 +2351,11 @@
     <xf numFmtId="176" fontId="29" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="29" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2373,6 +2367,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -21049,7 +21049,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21069,7 +21069,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21106,7 +21106,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21126,7 +21126,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21161,7 +21161,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21181,7 +21181,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21218,7 +21218,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21238,7 +21238,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21273,7 +21273,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21293,7 +21293,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21330,7 +21330,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21350,7 +21350,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21385,7 +21385,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21405,7 +21405,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21442,7 +21442,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21462,7 +21462,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21497,7 +21497,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21517,7 +21517,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21554,7 +21554,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21574,7 +21574,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21609,7 +21609,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21629,7 +21629,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21666,7 +21666,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21686,7 +21686,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21721,7 +21721,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21741,7 +21741,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21778,7 +21778,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21798,7 +21798,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21833,7 +21833,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21853,7 +21853,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21890,7 +21890,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21910,7 +21910,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21945,7 +21945,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21965,7 +21965,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22002,7 +22002,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22022,7 +22022,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22057,7 +22057,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22077,7 +22077,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22114,7 +22114,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22134,7 +22134,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22169,7 +22169,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22189,7 +22189,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22226,7 +22226,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22246,7 +22246,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44257,7 +44257,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44277,7 +44277,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44314,7 +44314,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44334,7 +44334,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44369,7 +44369,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44389,7 +44389,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44426,7 +44426,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44446,7 +44446,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44481,7 +44481,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44501,7 +44501,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44538,7 +44538,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44558,7 +44558,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44593,7 +44593,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44613,7 +44613,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44650,7 +44650,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44670,7 +44670,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44705,7 +44705,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44725,7 +44725,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44762,7 +44762,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44782,7 +44782,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44817,7 +44817,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44837,7 +44837,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44874,7 +44874,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44894,7 +44894,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44929,7 +44929,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44949,7 +44949,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44986,7 +44986,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45006,7 +45006,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45041,7 +45041,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45061,7 +45061,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45098,7 +45098,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45118,7 +45118,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45153,7 +45153,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45173,7 +45173,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45210,7 +45210,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45230,7 +45230,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45265,7 +45265,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45285,7 +45285,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45322,7 +45322,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45342,7 +45342,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45377,7 +45377,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45397,7 +45397,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45434,7 +45434,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45454,7 +45454,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -52991,6 +52991,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId656" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19792950" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1212" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1213" name="Picture 2" descr="cid:4b2ded6d13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId657" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId658" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -53357,10 +53439,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -53371,27 +53453,27 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="15">
         <f>SUM(E4:E41)</f>
-        <v>14287938.3726</v>
+        <v>14288665.0393</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>1377685.0656999999</v>
+        <v>1378411.7323</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G41)</f>
-        <v>12910253.306899998</v>
+        <v>12910253.306999998</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>9.6422942888806809</v>
+        <v>9.6468895345280608</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I41)</f>
@@ -53403,25 +53485,25 @@
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>-730.98299681954086</v>
+        <v>-4.3162968195974827</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>-0.11805359832942486</v>
+        <v>-0.1179535984992981</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="68">
+      <c r="A4" s="66">
         <f>RA!A8</f>
         <v>42481</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
         <v>453487.8063</v>
@@ -53456,14 +53538,14 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
         <v>73782.670899999997</v>
@@ -53499,14 +53581,14 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="68"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
         <v>96450.784199999995</v>
@@ -53542,14 +53624,14 @@
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
         <v>41214.295400000003</v>
@@ -53585,14 +53667,14 @@
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="68"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
         <v>118721.09639999999</v>
@@ -53628,14 +53710,14 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="68"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
         <v>186582.03049999999</v>
@@ -53671,14 +53753,14 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="68"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
         <v>97283.717799999999</v>
@@ -53714,14 +53796,14 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="68"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
         <v>98095.464500000002</v>
@@ -53757,14 +53839,14 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="68"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
         <v>836125.24120000005</v>
@@ -53800,14 +53882,14 @@
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="68"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
         <v>364970.8835</v>
@@ -53843,14 +53925,14 @@
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="68"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
         <v>1244674.8965</v>
@@ -53886,14 +53968,14 @@
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="68"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
         <v>412168.1263</v>
@@ -53929,14 +54011,14 @@
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="68"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
         <v>940755.92819999997</v>
@@ -53972,14 +54054,14 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="68"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
         <v>283935.9988</v>
@@ -54015,14 +54097,14 @@
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="68"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
         <v>1066946.8668</v>
@@ -54058,14 +54140,14 @@
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="68"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
         <v>2141330.0619999999</v>
@@ -54101,14 +54183,14 @@
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="68"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
         <v>193581.3334</v>
@@ -54144,14 +54226,14 @@
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="68"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
         <v>209640.7163</v>
@@ -54187,14 +54269,14 @@
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="68"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
         <v>593235.47820000001</v>
@@ -54230,14 +54312,14 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="68"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
         <v>197852.06820000001</v>
@@ -54273,14 +54355,14 @@
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="68"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
         <v>768748.86340000003</v>
@@ -54316,14 +54398,14 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="68"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
         <v>834405.38500000001</v>
@@ -54359,14 +54441,14 @@
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="68"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
         <v>1494102.7588</v>
@@ -54402,14 +54484,14 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="68"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
         <v>722464.85840000003</v>
@@ -54445,14 +54527,14 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="68"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="63"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
         <v>97789.819799999997</v>
@@ -54488,14 +54570,14 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="68"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>0</v>
@@ -54531,14 +54613,14 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="12" thickBot="1">
-      <c r="A30" s="68"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
         <v>128373.755</v>
@@ -54574,14 +54656,14 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
-      <c r="A31" s="68"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="12">
         <v>70</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="70"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B34:D61,3,0)</f>
         <v>64178.65</v>
@@ -54616,14 +54698,14 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="68"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="12">
         <v>71</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
         <v>90470.14</v>
@@ -54659,14 +54741,14 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="68"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="12">
         <v>72</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="63"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D62,3,0)</f>
         <v>5577.79</v>
@@ -54702,14 +54784,14 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="68"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="12">
         <v>73</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D63,3,0)</f>
         <v>58524.84</v>
@@ -54745,14 +54827,14 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" s="35" customFormat="1">
-      <c r="A35" s="68"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="12">
         <v>74</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B35:D64,3,0)</f>
         <v>0</v>
@@ -54787,14 +54869,14 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A36" s="68"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="12">
         <v>75</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B8:D64,3,0)</f>
         <v>29552.991399999999</v>
@@ -54830,14 +54912,14 @@
       <c r="M36" s="32"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="68"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="12">
         <v>76</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D65,3,0)</f>
         <v>245436.4895</v>
@@ -54873,14 +54955,14 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="68"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="12">
         <v>77</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B9:D66,3,0)</f>
         <v>49660.72</v>
@@ -54916,14 +54998,14 @@
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="68"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="12">
         <v>78</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B10:D67,3,0)</f>
         <v>43768.41</v>
@@ -54959,25 +55041,25 @@
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13" s="36" customFormat="1">
-      <c r="A40" s="68"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="12">
         <v>9101</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B11:D68,3,0)</f>
-        <v>0</v>
+        <v>726.66669999999999</v>
       </c>
       <c r="F40" s="25">
         <f>VLOOKUP(C40,RA!B11:I72,8,0)</f>
-        <v>0</v>
+        <v>726.66660000000002</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999974897946E-5</v>
       </c>
       <c r="H40" s="27">
         <f>RA!J39</f>
@@ -54993,22 +55075,22 @@
       </c>
       <c r="K40" s="22">
         <f t="shared" si="1"/>
-        <v>-726.66669999999999</v>
+        <v>0</v>
       </c>
       <c r="L40" s="22">
         <f t="shared" si="2"/>
-        <v>-1E-4</v>
+        <v>-2.5102058561106422E-14</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="68"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="12">
         <v>99</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B8:D68,3,0)</f>
         <v>4047.4358999999999</v>
@@ -55045,6 +55127,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -55061,31 +55168,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -55319,25 +55401,25 @@
       <c r="B7" s="77"/>
       <c r="C7" s="78"/>
       <c r="D7" s="51">
-        <v>14287938.3726</v>
+        <v>14288665.0393</v>
       </c>
       <c r="E7" s="51">
         <v>15007522.792199999</v>
       </c>
       <c r="F7" s="52">
-        <v>95.205175234023301</v>
+        <v>95.210017250324498</v>
       </c>
       <c r="G7" s="51">
         <v>13803376.3357</v>
       </c>
       <c r="H7" s="52">
-        <v>3.5104602317243399</v>
+        <v>3.5157246444471801</v>
       </c>
       <c r="I7" s="51">
-        <v>1377685.0656999999</v>
+        <v>1378411.7323</v>
       </c>
       <c r="J7" s="52">
-        <v>9.6422942888806809</v>
+        <v>9.6468895345280608</v>
       </c>
       <c r="K7" s="51">
         <v>1478286.8121</v>
@@ -55346,13 +55428,13 @@
         <v>10.709603043109601</v>
       </c>
       <c r="M7" s="52">
-        <v>-6.8052928279247998E-2</v>
+        <v>-6.7561368323457993E-2</v>
       </c>
       <c r="N7" s="51">
-        <v>344958800.10799998</v>
+        <v>344959543.44139999</v>
       </c>
       <c r="O7" s="51">
-        <v>2677744062.2336998</v>
+        <v>2677744805.5671</v>
       </c>
       <c r="P7" s="51">
         <v>829334</v>
@@ -55364,23 +55446,23 @@
         <v>21.246419992777898</v>
       </c>
       <c r="S7" s="51">
-        <v>17.228207661328302</v>
+        <v>17.229083866451901</v>
       </c>
       <c r="T7" s="51">
-        <v>18.5304876388692</v>
+        <v>18.530512005140299</v>
       </c>
       <c r="U7" s="53">
-        <v>-7.5589986093802697</v>
+        <v>-7.5536699964792904</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" thickBot="1">
       <c r="A8" s="79">
         <v>42481</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="54">
         <v>453487.8063</v>
       </c>
@@ -55438,10 +55520,10 @@
     </row>
     <row r="9" spans="1:23" ht="12" thickBot="1">
       <c r="A9" s="80"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="54">
         <v>73782.670899999997</v>
       </c>
@@ -55499,10 +55581,10 @@
     </row>
     <row r="10" spans="1:23" ht="12" thickBot="1">
       <c r="A10" s="80"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="54">
         <v>96450.784199999995</v>
       </c>
@@ -55560,10 +55642,10 @@
     </row>
     <row r="11" spans="1:23" ht="12" thickBot="1">
       <c r="A11" s="80"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="54">
         <v>41214.295400000003</v>
       </c>
@@ -55621,10 +55703,10 @@
     </row>
     <row r="12" spans="1:23" ht="12" thickBot="1">
       <c r="A12" s="80"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="54">
         <v>118721.09639999999</v>
       </c>
@@ -55682,10 +55764,10 @@
     </row>
     <row r="13" spans="1:23" ht="12" thickBot="1">
       <c r="A13" s="80"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="54">
         <v>186582.03049999999</v>
       </c>
@@ -55743,10 +55825,10 @@
     </row>
     <row r="14" spans="1:23" ht="12" thickBot="1">
       <c r="A14" s="80"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="54">
         <v>97283.717799999999</v>
       </c>
@@ -55804,10 +55886,10 @@
     </row>
     <row r="15" spans="1:23" ht="12" thickBot="1">
       <c r="A15" s="80"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="54">
         <v>98095.464500000002</v>
       </c>
@@ -55865,10 +55947,10 @@
     </row>
     <row r="16" spans="1:23" ht="12" thickBot="1">
       <c r="A16" s="80"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="54">
         <v>836125.24120000005</v>
       </c>
@@ -55926,10 +56008,10 @@
     </row>
     <row r="17" spans="1:21" ht="12" thickBot="1">
       <c r="A17" s="80"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="54">
         <v>364970.8835</v>
       </c>
@@ -55985,12 +56067,12 @@
         <v>-8.14778405560787</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" thickBot="1">
+    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="80"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="54">
         <v>1244674.8965</v>
       </c>
@@ -56046,12 +56128,12 @@
         <v>-4.3226028786511002</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" thickBot="1">
+    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A19" s="80"/>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="54">
         <v>412168.1263</v>
       </c>
@@ -56109,10 +56191,10 @@
     </row>
     <row r="20" spans="1:21" ht="12" thickBot="1">
       <c r="A20" s="80"/>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="54">
         <v>940755.92819999997</v>
       </c>
@@ -56168,12 +56250,12 @@
         <v>6.4251886746450104</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" thickBot="1">
+    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A21" s="80"/>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="54">
         <v>283935.9988</v>
       </c>
@@ -56229,12 +56311,12 @@
         <v>0.82687540213113098</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12" thickBot="1">
+    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A22" s="80"/>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="54">
         <v>1066946.8668</v>
       </c>
@@ -56292,10 +56374,10 @@
     </row>
     <row r="23" spans="1:21" ht="12" thickBot="1">
       <c r="A23" s="80"/>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="70"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="54">
         <v>2141330.0619999999</v>
       </c>
@@ -56353,10 +56435,10 @@
     </row>
     <row r="24" spans="1:21" ht="12" thickBot="1">
       <c r="A24" s="80"/>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="54">
         <v>193581.3334</v>
       </c>
@@ -56414,10 +56496,10 @@
     </row>
     <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="80"/>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="54">
         <v>209640.7163</v>
       </c>
@@ -56475,10 +56557,10 @@
     </row>
     <row r="26" spans="1:21" ht="12" thickBot="1">
       <c r="A26" s="80"/>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="54">
         <v>593235.47820000001</v>
       </c>
@@ -56536,10 +56618,10 @@
     </row>
     <row r="27" spans="1:21" ht="12" thickBot="1">
       <c r="A27" s="80"/>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="54">
         <v>197852.06820000001</v>
       </c>
@@ -56597,10 +56679,10 @@
     </row>
     <row r="28" spans="1:21" ht="12" thickBot="1">
       <c r="A28" s="80"/>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="54">
         <v>768748.86340000003</v>
       </c>
@@ -56658,10 +56740,10 @@
     </row>
     <row r="29" spans="1:21" ht="12" thickBot="1">
       <c r="A29" s="80"/>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="54">
         <v>834405.38500000001</v>
       </c>
@@ -56719,10 +56801,10 @@
     </row>
     <row r="30" spans="1:21" ht="12" thickBot="1">
       <c r="A30" s="80"/>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="54">
         <v>1494102.7588</v>
       </c>
@@ -56780,10 +56862,10 @@
     </row>
     <row r="31" spans="1:21" ht="12" thickBot="1">
       <c r="A31" s="80"/>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="54">
         <v>722464.85840000003</v>
       </c>
@@ -56841,10 +56923,10 @@
     </row>
     <row r="32" spans="1:21" ht="12" thickBot="1">
       <c r="A32" s="80"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="54">
         <v>97789.819799999997</v>
       </c>
@@ -56902,10 +56984,10 @@
     </row>
     <row r="33" spans="1:21" ht="12" thickBot="1">
       <c r="A33" s="80"/>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
@@ -56931,10 +57013,10 @@
     </row>
     <row r="34" spans="1:21" ht="12" thickBot="1">
       <c r="A34" s="80"/>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="54">
         <v>128373.755</v>
       </c>
@@ -56990,12 +57072,12 @@
         <v>-3.2722173753891601</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="12" thickBot="1">
+    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A35" s="80"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="54">
         <v>64178.65</v>
       </c>
@@ -57039,10 +57121,10 @@
     </row>
     <row r="36" spans="1:21" ht="12" thickBot="1">
       <c r="A36" s="80"/>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="54">
         <v>90470.14</v>
       </c>
@@ -57096,10 +57178,10 @@
     </row>
     <row r="37" spans="1:21" ht="12" thickBot="1">
       <c r="A37" s="80"/>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="54">
         <v>5577.79</v>
       </c>
@@ -57153,10 +57235,10 @@
     </row>
     <row r="38" spans="1:21" ht="12" thickBot="1">
       <c r="A38" s="80"/>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="54">
         <v>58524.84</v>
       </c>
@@ -57210,10 +57292,10 @@
     </row>
     <row r="39" spans="1:21" ht="12" thickBot="1">
       <c r="A39" s="80"/>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="57"/>
       <c r="E39" s="57"/>
       <c r="F39" s="57"/>
@@ -57237,12 +57319,12 @@
       <c r="T39" s="57"/>
       <c r="U39" s="58"/>
     </row>
-    <row r="40" spans="1:21" ht="12" thickBot="1">
+    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A40" s="80"/>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="54">
         <v>29552.991399999999</v>
       </c>
@@ -57296,10 +57378,10 @@
     </row>
     <row r="41" spans="1:21" ht="12" thickBot="1">
       <c r="A41" s="80"/>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="70"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="54">
         <v>245436.4895</v>
       </c>
@@ -57357,10 +57439,10 @@
     </row>
     <row r="42" spans="1:21" ht="12" thickBot="1">
       <c r="A42" s="80"/>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="70"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="54">
         <v>49660.72</v>
       </c>
@@ -57414,10 +57496,10 @@
     </row>
     <row r="43" spans="1:21" ht="12" thickBot="1">
       <c r="A43" s="80"/>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="70"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="54">
         <v>43768.41</v>
       </c>
@@ -57471,23 +57553,31 @@
     </row>
     <row r="44" spans="1:21" ht="12" thickBot="1">
       <c r="A44" s="80"/>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="54">
+        <v>726.66669999999999</v>
+      </c>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
+      <c r="I44" s="54">
+        <v>726.66660000000002</v>
+      </c>
+      <c r="J44" s="55">
+        <v>99.999986238532699</v>
+      </c>
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
       <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
+      <c r="N44" s="54">
+        <v>743.33339999999998</v>
+      </c>
       <c r="O44" s="54">
-        <v>-1523.9315999999999</v>
+        <v>-780.59820000000002</v>
       </c>
       <c r="P44" s="54">
         <v>1</v>
@@ -57498,16 +57588,22 @@
       <c r="R44" s="55">
         <v>0</v>
       </c>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="58"/>
+      <c r="S44" s="54">
+        <v>726.66669999999999</v>
+      </c>
+      <c r="T44" s="54">
+        <v>16.666699999999999</v>
+      </c>
+      <c r="U44" s="56">
+        <v>97.706417536402896</v>
+      </c>
     </row>
     <row r="45" spans="1:21" ht="12" thickBot="1">
       <c r="A45" s="81"/>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="70"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="59">
         <v>4047.4358999999999</v>
       </c>
@@ -57561,33 +57657,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
     <mergeCell ref="B6:C6"/>
@@ -57604,6 +57673,33 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
